--- a/Folders for authors/FINAL_Data ownership.xlsx
+++ b/Folders for authors/FINAL_Data ownership.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="53">
   <si>
     <t xml:space="preserve">Study ID</t>
   </si>
@@ -167,6 +167,18 @@
   </si>
   <si>
     <t xml:space="preserve">Thijs_Fijen_Allium_porrum_Italy_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pablo_Cavigliasso_Vaccinium_corymbosum_Argentina_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pablo Cavigliasso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instituto Nacional de Tecnología Agropecuaria (INTA), Estación Experimental Agropecuaria Concordia. Programa Nacional Apícola (PROAPI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pablo.cavigliaso@gmail.com; cavigliasso.pablo@inta.gob.ar</t>
   </si>
 </sst>
 </file>
@@ -181,6 +193,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -210,6 +223,7 @@
       <color rgb="FF0066CC"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -282,7 +296,9 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -402,16 +418,16 @@
   <dimension ref="A1:IW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="40"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="44.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="54.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="54.98"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1528,6 +1544,29 @@
         <v>14</v>
       </c>
     </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/Folders for authors/FINAL_Data ownership.xlsx
+++ b/Folders for authors/FINAL_Data ownership.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="68">
   <si>
     <t xml:space="preserve">Study ID</t>
   </si>
@@ -179,6 +179,51 @@
   </si>
   <si>
     <t xml:space="preserve">pablo.cavigliaso@gmail.com; cavigliasso.pablo@inta.gob.ar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlie_Nicholson_Vaccinium_corymbosum_USA_several_years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlie C. Nicholson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of California Davis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charlie.c.nicholson@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSF-GRFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taylor H. Ricketts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Vermont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taylor.Ricketts@uvm.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katherine_LW_Burns_Malus_domestica_Ireland_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katherine LW Burns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University College Dublin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">katherine.burns@ucdconnect.ie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irish Research Council-EPA Government of Ireland Postgraduate Scholarship, Eva Crane Trust, National University of Ireland Galway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dara A Stanley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dara.stanley@ucd.ie</t>
   </si>
 </sst>
 </file>
@@ -300,7 +345,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -334,6 +379,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -418,12 +467,12 @@
   <dimension ref="A1:IW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="20:21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="40"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="44.99"/>
@@ -1567,6 +1616,95 @@
         <v>14</v>
       </c>
     </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -1575,6 +1713,7 @@
     <hyperlink ref="D4" r:id="rId2" display="jose.gonzalez@uam.es"/>
     <hyperlink ref="D14" r:id="rId3" display="david.kleijn@wur.nl"/>
     <hyperlink ref="D16" r:id="rId4" display="david.kleijn@wur.nl"/>
+    <hyperlink ref="D21" r:id="rId5" display="dara.stanley@ucd.ie"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Folders for authors/FINAL_Data ownership.xlsx
+++ b/Folders for authors/FINAL_Data ownership.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="89">
   <si>
     <t xml:space="preserve">Study ID</t>
   </si>
@@ -224,6 +224,69 @@
   </si>
   <si>
     <t xml:space="preserve">dara.stanley@ucd.ie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David_Kleijn_Allium_porrum_Italy_2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wageningen University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David_Kleijn_Vaccinium_macrocarpon_USA_1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenna E. Mackenzie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anne L. Averill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David_Kleijn_Vaccinium_macrocarpon_USA_1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David_Kleijn_Malus_domestica_Netherlands_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G.A. (Arjen) de Groot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wageningen Environmental Research, Alterra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g.a.degroot@wur.nl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dutch Ministry of Economic Affairs (BO-11-011.01-0.51)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David.Kleijn@wur.nl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David_Kleijn_Malus_domestica_Netherlands_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David_Kleijn_Vaccinium_corymbosum_Netherlands_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David_Kleijn_Vaccinium_corymbosum_Netherlands_2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David_Kleijn_Pyrus_communis_Netherlands_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dutch Ministry of Economic Affairs (BO-11-011.01-011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David_Kleijn_Malus_domestica_Netherlands_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David_Kleijn_Pyrus_communis_Netherlands_2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David_Kleijn_Malus_domestica_Netherlands_2011</t>
   </si>
 </sst>
 </file>
@@ -345,7 +408,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -379,10 +442,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -466,11 +525,11 @@
   </sheetPr>
   <dimension ref="A1:IW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="20:21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.99"/>
@@ -1698,11 +1757,421 @@
       <c r="C21" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
